--- a/experiment result/128_0.6_40_zs40_kappa_lp.xlsx
+++ b/experiment result/128_0.6_40_zs40_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01376409883448076</v>
+        <v>0.009827832439751306</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0184061926434249</v>
+        <v>0.01138920980398938</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0180108325803726</v>
+        <v>0.002333215069445185</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01662277702391643</v>
+        <v>0.01527444553534964</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.01868828394833207</v>
+        <v>0.0007097300275291557</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01718624057015978</v>
+        <v>0.005957296237006931</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.006349301395234835</v>
+        <v>0.001295674211264336</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.01341944971787561</v>
+        <v>0.009531744031422576</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.01676981156346357</v>
+        <v>0.01544388831890212</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01772234270059189</v>
+        <v>0.03597705805676311</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.03424622532064295</v>
+        <v>0.006871443640888686</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.02293245457892836</v>
+        <v>0.02536751233663802</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.02268504928450773</v>
+        <v>0.009042017140838422</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01748979198589166</v>
+        <v>0.00164930633622356</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.01837644287883415</v>
+        <v>0.0007414419243161788</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.02574437469222834</v>
+        <v>0.006740861299688536</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.02522835360274405</v>
+        <v>0.00219725854283294</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.007598957755047287</v>
+        <v>0.0005695475231856388</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01379798427811052</v>
+        <v>0.003772685533138156</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.02599391788418134</v>
+        <v>0.007828124229040521</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.009284435122654377</v>
+        <v>0.002711173902040224</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.01411519637172528</v>
+        <v>0.003970557582909364</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.01327192371168251</v>
+        <v>0.005463038031682516</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0065556684052061</v>
+        <v>0.0002413978991645937</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.006536187055412807</v>
+        <v>0.0008972916178714768</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.02582258424678802</v>
+        <v>0.02030497490690317</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.02581865174602311</v>
+        <v>0.00255442726756996</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.02092836025823396</v>
+        <v>0.008719977532180678</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.01181125284483</v>
+        <v>0.0202862935595906</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.01534698168837079</v>
+        <v>0.004410772297261766</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.007655978882976392</v>
+        <v>0.0002975342348868492</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.01381946848426965</v>
+        <v>0.0009717476728982039</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.02468888206646491</v>
+        <v>0.007467376342484421</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.01054530910989643</v>
+        <v>0.004377757479223079</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.02257374559444229</v>
+        <v>0.002224169443136531</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0190918792321759</v>
+        <v>0.02542722283216301</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.005771333686229567</v>
+        <v>0.0005426560835404333</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.01153493620228764</v>
+        <v>0.0009118002063071218</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.01893367529366149</v>
+        <v>0.002200150903941252</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.02110820596808862</v>
+        <v>0.01061402033635517</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.02505072804643728</v>
+        <v>0.06379442080804212</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.01144743589993836</v>
+        <v>0.000753830638033041</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.01952506293867663</v>
+        <v>0.02926627012928925</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.02043053908630031</v>
+        <v>0.00116241026648775</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.02033767321042693</v>
+        <v>0.00678701770354012</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.01548539866804179</v>
+        <v>0.002365076788786583</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.02149322516179457</v>
+        <v>0.02647164352332336</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.01097484549607882</v>
+        <v>0.0009324733172118476</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.01888512439702528</v>
+        <v>0.002642335204410381</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.004987394166813521</v>
+        <v>0.0003828458108850457</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.01564559533467543</v>
+        <v>0.003550591367126914</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.01919447759484733</v>
+        <v>0.02825223189527545</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.003178648936365687</v>
+        <v>0.00026903889034283</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.005455331052442541</v>
+        <v>0.001087012286239676</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.01860277372103499</v>
+        <v>0.001911825655193077</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.02583669281561186</v>
+        <v>0.007420898120182018</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.01814504047695687</v>
+        <v>0.01660415763982746</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.01675745079390653</v>
+        <v>0.007834417033165512</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.008953815559479671</v>
+        <v>0.0006793726232398086</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.01362047957849552</v>
+        <v>0.004024937291648395</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.003160531154799571</v>
+        <v>0.000138805189449796</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.009004952578493106</v>
+        <v>0.001083121617317182</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0133774412162032</v>
+        <v>0.009131971333020048</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01892697019168534</v>
+        <v>0.0008646735368737349</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.03071189799209517</v>
+        <v>0.01042514209749942</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.02059083017020416</v>
+        <v>0.003437021902020948</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.03514945853021805</v>
+        <v>0.01163881538527617</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.01145256731671891</v>
+        <v>0.0007581058862373518</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.005365126121283102</v>
+        <v>0.00111819008219342</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.01226938323717168</v>
+        <v>0.004051803566176676</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.01448109336210466</v>
+        <v>0.009864459142080952</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.007839000082558943</v>
+        <v>0.0003572976767541405</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.01901563080357324</v>
+        <v>0.01645170084355705</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.006455046053652926</v>
+        <v>0.001165421684113611</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.01569551769122717</v>
+        <v>0.00832593150153849</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.01357090106060556</v>
+        <v>0.001745307241378728</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.007801835452071368</v>
+        <v>0.0008490322297103791</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.01444093903996886</v>
+        <v>0.001558611925496877</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.02165889571020125</v>
+        <v>0.001754719079557211</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.009774293263267699</v>
+        <v>0.001214980222403604</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.02366453772668324</v>
+        <v>0.004401604115997515</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.01890469479050617</v>
+        <v>0.001872989778821974</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.01095811153745538</v>
+        <v>0.00214116373717709</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.01522522860322483</v>
+        <v>0.003308785006532647</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.02456122949155087</v>
+        <v>0.01146488635856129</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.01514337375783186</v>
+        <v>0.005604483634363438</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.01431558795199374</v>
+        <v>0.0005500357404015788</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.02872181736462546</v>
+        <v>0.02686583555231907</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.020215277892025</v>
+        <v>0.003965341809094762</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.01633854140589895</v>
+        <v>0.000978335124384044</v>
       </c>
     </row>
   </sheetData>
